--- a/biology/Botanique/Ezosciadium/Ezosciadium.xlsx
+++ b/biology/Botanique/Ezosciadium/Ezosciadium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ezosciadium est un  genre monospécifique de plantes herbacées appartenant à la famille des Apiaceae. Il ne contient qu'une seule espèce Ezosciadium capense, originaire de l'Afrique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ezosciadium est décrit en 1991 par le botaniste britannique Brian Laurence Burtt, spécialement pour l'espèce Ezosciadium capense, décrite en 1837 sous le nom Trachysciadium capense par les botanistes Christian Friedrich Ecklon et Carl Ludwig Philipp Zeyher[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ezosciadium est décrit en 1991 par le botaniste britannique Brian Laurence Burtt, spécialement pour l'espèce Ezosciadium capense, décrite en 1837 sous le nom Trachysciadium capense par les botanistes Christian Friedrich Ecklon et Carl Ludwig Philipp Zeyher.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Chamarea est présent en Afrique du Sud[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chamarea est présent en Afrique du Sud.
 </t>
         </is>
       </c>
